--- a/Jiamin Akter.xlsx
+++ b/Jiamin Akter.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP-Public\Desktop\25_Shahadat_58\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A8223CC-CDE2-49ED-9957-4195EFD1CFBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -75,7 +81,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -117,14 +123,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -162,7 +171,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -234,7 +243,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -407,11 +416,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,19 +589,19 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="E6">
         <f>C6*D6</f>
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="F6">
         <f>E6*10%</f>
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G6">
         <f>E6-F6</f>
-        <v>270</v>
+        <v>216</v>
       </c>
       <c r="H6" t="str">
         <f>IF(E6&gt;600,"yes","No")</f>
@@ -602,17 +611,17 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G7">
         <f>SUM(G2:G6)</f>
-        <v>9919.7999999999993</v>
+        <v>9865.7999999999993</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1"/>
+  <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -624,7 +633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
